--- a/value-matching/SexValues.xlsx
+++ b/value-matching/SexValues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuxin/PycharmProjects/concept-based-mapping/value-matching/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9AD62A-9509-174A-9BB0-49D026D07637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2FB737-DA76-A64B-B7AC-0C874D907DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5620" yWindow="500" windowWidth="32780" windowHeight="21420" xr2:uid="{5D199FA7-EC09-EF44-B58A-A9750BCA3120}"/>
   </bookViews>
@@ -597,7 +597,7 @@
   <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/value-matching/SexValues.xlsx
+++ b/value-matching/SexValues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuxin/PycharmProjects/concept-based-mapping/value-matching/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2FB737-DA76-A64B-B7AC-0C874D907DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF6258A-EBD3-CB4C-953A-2DE06084F2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="500" windowWidth="32780" windowHeight="21420" xr2:uid="{5D199FA7-EC09-EF44-B58A-A9750BCA3120}"/>
+    <workbookView xWindow="180" yWindow="500" windowWidth="29760" windowHeight="21420" xr2:uid="{5D199FA7-EC09-EF44-B58A-A9750BCA3120}"/>
   </bookViews>
   <sheets>
     <sheet name="sex" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="44">
   <si>
     <t>http://terminology.hl7.org/CodeSystem/v3-AdministrativeGender#M</t>
   </si>
@@ -82,51 +82,9 @@
     <t>openehr:sex_assigned_at_birth</t>
   </si>
   <si>
-    <t>"Male"</t>
-  </si>
-  <si>
-    <t>"Female"</t>
-  </si>
-  <si>
-    <t>"Intersex"</t>
-  </si>
-  <si>
     <t>pheno:karyotypic_sex</t>
   </si>
   <si>
-    <t>"XX"</t>
-  </si>
-  <si>
-    <t>"XY"</t>
-  </si>
-  <si>
-    <t>"XO"</t>
-  </si>
-  <si>
-    <t>"XXY"</t>
-  </si>
-  <si>
-    <t>"XXX"</t>
-  </si>
-  <si>
-    <t>"XXYY"</t>
-  </si>
-  <si>
-    <t>"XXXY"</t>
-  </si>
-  <si>
-    <t>"XXXX"</t>
-  </si>
-  <si>
-    <t>"XYY"</t>
-  </si>
-  <si>
-    <t>"UNKNOWN_KARYOTYPE"</t>
-  </si>
-  <si>
-    <t>"OTHER_KARYOTYPE"</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
@@ -136,15 +94,6 @@
     <t>pheno:sex</t>
   </si>
   <si>
-    <t>"UNKNOWN_SEX"</t>
-  </si>
-  <si>
-    <t>"FEMALE"</t>
-  </si>
-  <si>
-    <t>"OTHER_SEX"</t>
-  </si>
-  <si>
     <t>skos:broadMatch</t>
   </si>
   <si>
@@ -166,7 +115,58 @@
     <t>?</t>
   </si>
   <si>
-    <t>"Male"  # male_phenotype</t>
+    <t>pheno:sex#UNKNOWN_SEX</t>
+  </si>
+  <si>
+    <t>pheno:sex#Male</t>
+  </si>
+  <si>
+    <t>pheno:sex#FEMALE</t>
+  </si>
+  <si>
+    <t>pheno:sex#OTHER_SEX</t>
+  </si>
+  <si>
+    <t>pheno:karyotypic_sex#XX</t>
+  </si>
+  <si>
+    <t>pheno:karyotypic_sex#XY</t>
+  </si>
+  <si>
+    <t>pheno:karyotypic_sex#Female</t>
+  </si>
+  <si>
+    <t>pheno:karyotypic_sex#Intersex</t>
+  </si>
+  <si>
+    <t>pheno:karyotypic_sex#XO</t>
+  </si>
+  <si>
+    <t>pheno:karyotypic_sex#XXY</t>
+  </si>
+  <si>
+    <t>pheno:karyotypic_sex#XXYY</t>
+  </si>
+  <si>
+    <t>pheno:karyotypic_sex#XXXY</t>
+  </si>
+  <si>
+    <t>pheno:karyotypic_sex#XXXX</t>
+  </si>
+  <si>
+    <t>pheno:karyotypic_sex#XYY</t>
+  </si>
+  <si>
+    <t>pheno:karyotypic_sex#UNKNOWN_KARYOTYPE</t>
+  </si>
+  <si>
+    <t>pheno:karyotypic_sex#OTHER_KARYOTYPE</t>
+  </si>
+  <si>
+    <t>pheno:karyotypic_sex#XXX</t>
+  </si>
+  <si>
+    <t>pheno:karyotypic_sex#Male</t>
   </si>
 </sst>
 </file>
@@ -594,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A62E99-FB15-5D42-8875-861659238417}">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
     <col min="28" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -648,61 +648,61 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -710,76 +710,76 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -787,1376 +787,1390 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="N15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>42</v>
+        <v>19</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Z27" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="W28" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Y28" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="X29" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/value-matching/SexValues.xlsx
+++ b/value-matching/SexValues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuxin/PycharmProjects/concept-based-mapping/value-matching/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBA5BAC-D156-3B44-AD53-2DCA10BE8411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8FFAF2-718B-A444-859C-4F851BAFB625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="500" windowWidth="29760" windowHeight="21420" xr2:uid="{5D199FA7-EC09-EF44-B58A-A9750BCA3120}"/>
   </bookViews>
@@ -262,10 +262,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,7 +586,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,7 +697,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -708,7 +708,7 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -720,7 +720,7 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -735,7 +735,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -753,7 +753,7 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -774,10 +774,10 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -800,8 +800,8 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -827,7 +827,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -856,7 +856,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
@@ -889,7 +889,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
         <v>43</v>
       </c>
@@ -925,7 +925,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
         <v>44</v>
       </c>
@@ -964,7 +964,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1005,7 +1005,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1050,7 +1050,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1098,7 +1098,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1151,7 +1151,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1205,7 +1205,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1262,7 +1262,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
@@ -1385,7 +1385,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1451,7 +1451,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,7 +1520,7 @@
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="AE24" s="1"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1746,7 +1746,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
@@ -1824,7 +1824,7 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1910,7 +1910,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1994,7 +1994,7 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2081,7 +2081,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="1" t="s">
         <v>24</v>
       </c>

--- a/value-matching/SexValues.xlsx
+++ b/value-matching/SexValues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuxin/PycharmProjects/concept-based-mapping/value-matching/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8FFAF2-718B-A444-859C-4F851BAFB625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F70B9C-2DDE-8545-B8B3-D7B14A3D153B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="29760" windowHeight="21420" xr2:uid="{5D199FA7-EC09-EF44-B58A-A9750BCA3120}"/>
+    <workbookView xWindow="180" yWindow="500" windowWidth="38160" windowHeight="21420" xr2:uid="{5D199FA7-EC09-EF44-B58A-A9750BCA3120}"/>
   </bookViews>
   <sheets>
     <sheet name="sex" sheetId="8" r:id="rId1"/>
@@ -586,7 +586,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/value-matching/SexValues.xlsx
+++ b/value-matching/SexValues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuxin/PycharmProjects/concept-based-mapping/value-matching/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F70B9C-2DDE-8545-B8B3-D7B14A3D153B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CDEF9F-FF3E-534E-9D8C-02FEF3A081EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="38160" windowHeight="21420" xr2:uid="{5D199FA7-EC09-EF44-B58A-A9750BCA3120}"/>
+    <workbookView xWindow="180" yWindow="500" windowWidth="28440" windowHeight="21420" xr2:uid="{5D199FA7-EC09-EF44-B58A-A9750BCA3120}"/>
   </bookViews>
   <sheets>
     <sheet name="sex" sheetId="8" r:id="rId1"/>
@@ -586,7 +586,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
